--- a/500all/speech_level/speeches_CHRG-114hhrg95425.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95425.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order.    Good morning everyone. I apologize for the delay. We all have three or four things going on at once, starting at 7 in the morning. So without objection, the Chair is authorized to declare recesses of the Committee at any time. We welcome everyone to today's hearing on H.R. 2947, the ``Financial Institution Bankruptcy Act of 2015.'' I will now recognize myself for an opening statement.    Last Congress, the Financial Institution Bankruptcy Act was reported favorably by this Committee and passed the House under suspension of the rules. This week, the legislation was reintroduced, and today, we build on last year's record by further examining the bill. In the wake of the financial crisis of 2008, Congress enacted the Dodd-Frank Wall Street Reform and Consumer Protection Act. That legislation was intended to address, among other things, the potential failure of large financial institutions.    While the Dodd-Frank Act created a regulatory process for such an event, the Act states that the preferred method of resolution for a financial institution is through the bankruptcy process. However, the Dodd-Frank Act did not make any amendments to the bankruptcy code to account for the unique characteristics of a financial institution. The legislation before us today fills that void.    The Financial Institution Bankruptcy Act is the product of years of study by industry, legal, and financial regulatory experts, as well as bipartisan review over the course of three separate Subcommittee hearings last Congress. The legislation includes several provisions that improve the ability of a financial institution to be resolved through the bankruptcy process. It allows for a speedy transfer of a financial firm's assets to a newly formed company. That company would continue the firm's operations for the benefit of its customers, employees, and creditors, and ensure the financial stability of the marketplace.    This quick transfer is overseen by, and subject to the approval of an experienced bankruptcy judge, and includes due process protections for parties-in-interest. The bill also creates an explicit rule in the bankruptcy process for the key financial regulators. In addition, there are provisions that facilitate the transfer of derivative and similarly structured contracts to the newly formed company. This will improve the ability of the company to continue the financial institution's operations.    Finally, the legislation recognizes the factually and legally complicated questions presented by the resolution of financial institutions. To that end, the bill provides that specialized bankruptcy and appellate judges will be designated in advance to preside over these cases.    The bankruptcy process has long been favored as the primary mechanism for dealing with distressed and failing companies. This is due to its impartial nature, adherence to established precedent, judiciary oversight, and grounding in the principles of due process and the rule of law. We are here today as part of an effort to structure a bankruptcy process that is better equipped to deal with the specific issues raised by failing financial firms.    As an original cosponsor of the bill, I look forward to hearing from today's expert panel of witnesses on the merits of the Financial Institution Bankruptcy Act and whether any further refinements to the bill are necessary. I now recognize the Ranking Member of the Subcommittee on Regulatory Reform, Commercial, and Antitrust Law, Mr. Hank Johnson, for his opening statement. Mr. Johnson.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman. H.R. 2947, the ``Financial Institution Bankruptcy Act of 2015,'' amends the bankruptcy code to establish a process for the expedited judicial resolution of large financial institutions to soften the disruptive effects of their collapse.    I trust the courts and am sympathetic to the notion that a judicial process may be preferable to an administrative process for resolving systemically important financial institutions that present a risk to the economic stability of our Nation, but I'm concerned that the lack of a funding mechanism for H.R. 2947 may make the bill unworkable.    A key difference between an orderly resolution under Dodd-Frank and the resolution contemplated by this bill concerns the proper mechanism for funding the reorganization of the debtor. In a typical bankruptcy case, the debtor's reorganization may be funded by private parties or by the Federal Government as illustrated by the General Motors bankruptcy.    In many instances, liquidity provided by the U.S. Government to prevent the collapse of financial institutions has either returned a profit to the government or is likely to be repaid. The National Bankruptcy Conference (NBC), which includes the Nation's leading bankruptcy scholars and practitioners, explained in a letter to the Committee in June that, ``meeting the liquidity needs of a distressed financial institution is essential to successfully resolving the firm without creating undue systemic risk.''    This critical mechanism has prevented the collapse of several major financial institutions without cost to the taxpayer. It is my understanding that this element does not currently exist in the bill for jurisdictional reasons. Nevertheless, I remain optimistic that the Chair will continue to work across party lines to accommodate these concerns prior to the bill's consideration on the floor.    In addition to these concerns, I would caution the Chair against efforts to combine this bill with legislation that would strike Title II of the Dodd-Frank Act. Such efforts would be unacceptable and would meet strong opposition. As the National Bankruptcy Conference further noted, laws currently in place such as Title II of the Dodd-Frank Act should ``continue to be available even if the bankruptcy code is amended to better address the resolution of systemically important financial institutions'' because ``the ability of U.S. regulators to assume full control of the resolution process to elicit the cooperation from non-U.S. regulators is an essential insurance policy against systemic risk and potential conflict and dysfunction among the multinational components of these institutions.''    Title II of the Dodd-Frank Act also serves as a valuable backstop to the bankruptcy process should this bill become law. Additionally, as the conference has also noted, it is important that financial regulators have a very significant role in the timely resolution of a financial institution regardless of whether by bankruptcy or orderly liquidation.    As the Conference noted, the ``heavy involvement of U.S. regulators would be critical if adverse systemic effects from the failure of the systemically important financial institution are to be prevented or minimized.''    It would be unwise to overlook the expertise of financial regulators who are charged with considering the impact of a resolution on the economy and financial markets in favor of a process that is intended to produce maximum returns to creditors while facilitating the debtor's reorganization.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman. I appreciate your holding this hearing.    Our Nation's financial system provides the life blood for industry, small businesses, and our communities to develop, grow, and prosper. Ensuring that this system functions efficiently in both good times and bad is critical to the ongoing vitality of our economy. The recent financial crisis illustrated that the financial system and existing laws were not adequately prepared for the insolvency of certain institutions, which threatened the very stability of the global economy and our financial industry.    There has been considerable debate over whether Congress' main response to the financial crisis--the Dodd-Frank Wall Street Reform and Consumer Protection Act--is adequate to respond to a future crisis. Today's hearing, however, is not focused on that debate. Instead, we turn our attention to the private and public efforts to strengthen the Bankruptcy Code so that it may better facilitate the resolution of an insolvent financial firm while preserving the stability of the financial markets.    The subject of today's hearing, the ``Financial Institution Bankruptcy Act of 2015,'' is a reflection of these efforts. The bill is calibrated carefully to provide transparency, predictability, and judicial oversight to a process that must be executed quickly and in a manner that is responsive to potential systemic risk.    Additionally, it incorporates the ``single point of entry'' approach, which a growing consensus of experts in public and private industry believes is the most effective and feasible method to resolve a financial institution that has a bank holding company. The Judiciary Committee has a long history of improving the Bankruptcy Code to ensure that it is equipped properly to administer all failing companies.    The Financial Institution Bankruptcy Act adds to this history by enhancing the ability of financial firms to be resolved through the bankruptcy process. The development of the legislation before us today has been a collaborative effort that included the financial and legal community, Members of Congress on both sides of the aisle, the Federal Reserve, the FDIC, the courts, and Treasury.    I applaud Congressman Trott for continuing the efforts of last Congress to strengthen the bankruptcy code and Chairman Marino for holding today's hearing on this important reform. I look forward to hearing from today's witnesses on the Financial Institution Bankruptcy Act and whether the passage of time has resulted in the need for any further revisions to the bill.    And at this time it is my pleasure to yield the balance of my time to the gentleman from Michigan, Mr. Trott, the chief sponsor of the legislation for any opening remarks that he might have.</t>
   </si>
   <si>
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Chairman. I also want to thank Chairman Marino and Ranking Member Johnson for holding this hearing, and also thank our witnesses for again providing their insight on this bill.    The health of our financial institutions, particularly large multinational players, is critical to not only our economy but also our citizens. Consequently, how we react when a systemically important financial institution fails is of particular concern.    The Financial Institution Bankruptcy Act of 2015 seeks to address those concerns and put in place a better process. The bill amends the bankruptcy code so as to allow the insolvency of a financial institution to be resolved through the Chapter 11 process. The Chapter 11 process provides rules that are designed to accomplish an equitable and predictable resolution of competing claims.    Chapter 11 is a relatively efficient process, and the integrity and transparency ensured by due process protections will reduce the risk to our overall economy and reduce the potential of a taxpayer funded bailout.    As an aside, my hometown is Detroit, Michigan, and I am here to tell you that the bankruptcy process can add great value to difficult financial situations that undermine our economy and our communities.    Thank you again, Chairman. I yield back my time.</t>
   </si>
   <si>
@@ -94,27 +82,18 @@
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    The Chair recognizes the full Judiciary Committee Ranking Member, Congressman Conyers from the State of Michigan for his opening statement.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman and Members of the Committee. I join in congratulating my colleague from Michigan, Mr. Trott, for his authorship of the measure that is before us. I support it, and I am a cosponsor of it. As a matter of fact, there are a number of reasons for my support.    Number one, the bill addresses a real need, recognized by regulatory agencies, bankruptcy experts, and the private sector that the bankruptcy law must be amended so that it can expeditiously restore trust in the financial marketplace as soon as possible after the collapse of a major financial institution.    Many of us recall the failure of Lehman Brothers in 2008 which caused a worldwide freeze on the availability of credit, which not only affected Wall Street but Main Street as well.    The near collapse of our Nation's economy because of Lehman's failure revealed that current bankruptcy law is ill equipped to deal with complex financial institutions in economic distress. H.R. 2947 would establish a specialized form of bankruptcy relief under Chapter 11 of the Bankruptcy Code by which the holding company of a large financial institution could voluntarily use or be forced to use by the Federal Reserve Board, under certain conditions.    The debtor's operating subsidiaries would continue to operate outside of bankruptcy while the debtor's principal assets--such as secured property, financial contracts, and the stock of its subsidiaries--would be transferred to a temporary bridge company. The bridge company, under the guidance of a trustee, in turn, would liquidate these assets to pay the claims of the debtor's creditors.    The legislation would also impose a temporary stay to prevent parties from exercising their rights in certain qualified financial contracts. Each critical step of this process would be under the supervision of a bankruptcy judge and subject to the right of appeal.    Another reason for my support is that it appropriately recognizes the important role of the Dodd-Frank Act in the regulation of large financial institutions. Without doubt, the Great Recession was a direct result of the regulatory equivalent of the Wild West. In the absence of any meaningful regulation of the mortgage industry, lenders developed high risk subprime mortgages and used predatory marketing tactics targeting the most vulnerable.    These doomed-to-fail mortgages were then securitized and sold to unsuspecting investors, including pension funds and school districts. The ensuing 2008 crash froze credit and trapped millions of Americans in mortgages they could no longer afford, causing waves of foreclosures, massive unemployment, and international economic upheaval.    The Dodd-Frank Act goes a long way toward reinvigorating a regulatory system that makes the financial marketplace more accountable and hopefully more resilient. In particular, Title II of Dodd-Frank establishes a mandatory resolution process to wind down large financial institutions, which is a critical enforcement tool for bank regulators to ensure compliance with the Act's heightened regulatory requirements.    Nevertheless, Dodd-Frank clearly recognizes that bankruptcy should be a first resort and that Title II's orderly resolution process should be a last resort. In fact, Title I of the Act explicitly requires these companies to write so-called living wills that must explain how they will resolve their financial difficulties in a hypothetical bankruptcy scenario. This is because bankruptcy law has, for more than 100 years, enabled some of the Nation's largest companies to regain their financial footing, including General Motors and Chrysler Corporations.    But to be a truly viable alternative to Dodd-Frank's resolution process, the bankruptcy law must be amended to facilitate the rapid administration of a debtor's assets in an orderly fashion that maximizes value and minimizes disruption to the financial marketplace.    And finally, I am pleased to note that this bill is the product of a very collaborative, inclusive, and deliberative process, which I hope would be more regularly employed in this Congress and not the exception when it comes to drafting legislation.    While an excellent measure, H.R. 2947 unfortunately does not include any provision allowing the Federal Government to be a lender of last resort, which nearly every expert recognizes is a necessary element to ensure financial stability. I recognize, however, that this is an issue not within the Committee's jurisdiction but more within the area of the jurisdiction of the Financial Services Committee.    I welcome the witnesses, particularly Mr. Levin, and I thank the witnesses for their participation here today, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Congressman Conyers.    Without objection, other Members' opening statements will be made part of the record. The Chair will begin by swearing in our witnesses before introducing them. Would you please rise and raise your right hand.    Do you swear that the testimony you're about to give before this Committee is the truth, the whole truth, and nothing but the truth, so help you God?    Let the record reflect that the witnesses have answered in the affirmative. Thank you. Please be seated.    I will now introduce each of the witnesses before anyone gives their opening statement. Mr. Don Bernstein is a partner at Davis Polk, where he heads the firm's insolvency and restructuring practice. During his distinguished 35-year career, he has represented nearly every major financial institution in numerous restructurings, as well as leading a number of operating firms through bankruptcy, including Ford, LTV Steel, and Johns Manville. Mr. Bernstein has earned multiple honors for his practice, including being elected by his peers as the chair of the National Bankruptcy Conference, the most prestigious professional organization in the field. Mr. Bernstein received his A.B. (Cum laude) from Princeton University and his JD from the University of Chicago Law School. Thank you, Mr. Bernstein, for being here    Mr. Stephen Hessler is a partner in the restructuring group of Kirkland &amp; Ellis. His practice involves representing debtors, creditors, and investors in complex corporate Chapter 11 cases, out-of-court restructurings, acquisitions, and related trial and appellate litigation. In addition to practicing law, Mr. Hessler is an author and frequent lecturer on a variety of restructuring related topics, including, as a professor at the University of Pennsylvania, where he teaches a restructuring class to both law school and Wharton students. Mr. Hessler has been recognized by both Chambers and Turnarounds &amp; Workouts as an outstanding restructuring lawyer. Mr. Hessler received his BA and JD from the University of Michigan, where he served as the managing editor of Michigan's Law Review. Welcome.    Mr. Richard Levin is a partner in the Bankruptcy, Workout and Corporate Reorganization Practice of Jenner &amp; Block. Mr. Levin is the current chair of the National Bankruptcy Conference, a fellow of the American College of Bankruptcy, and a lecturer of bankruptcy law at the Harvard Law School. In almost 40 years of practice, Mr. Levin has gained a reputation as one of the foremost restructuring, bankruptcy and creditor/debtor rights lawyers. Notably, Mr. Levin served as a bankruptcy counsel to the House Judiciary Committee and was one of the principal authors of the 1978 U.S. Bankruptcy Code. Mr. Levin received his undergraduate degree from MIT and his JD from Yale Law School where he served as editor of Yale Law Review. Welcome, Mr. Levin.</t>
   </si>
   <si>
-    <t>Levin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Levin. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Each of the witnesses' written statements will be entered into the record in its entirety, and I ask each of the witnesses to summarize their statements, you've been through this before, in 5 minutes or less. To help you stay within your time, you see the lights in front of you, but as I do, when I'm sitting at that table making a statement, I'm concentrating on making my statement and not watching the lights.    So what I will politely and diplomatically do if it gets too far over the 5 minutes, is I will reach for the gavel and just sort of raise it to get your attention, and ask you to succinctly come to a close in your statement.    I'm going to recognize our witnesses for their opening statement. Mr. Bernstein.</t>
   </si>
   <si>
-    <t>Bernstein</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bernstein. Thank you, Chairman Marino, and thank you, Chairman Goodlatte, and also Congressman Trott for introducing and being a sponsor of the bill, as well as Congressman Conyers. I want to say that you have made my job easy in terms of meeting the 5-minute requirement because the statements were so good in terms of summarizing the bill. I'm just going to skip to my major points    So, just as a little bit of background, this idea of single point of entry resolution of a financial firm is a result of a lot of work that's been done at the FDIC and in other contexts, including under Title II of Dodd-Frank, with the idea that if you set up financial institutions correctly in the United States with bank holding companies, you should be able to recapitalize their operations if the operations have losses because there is loss absorbency at the holding company level.    And in fact, there are a number of features that are being added to the way bank holding companies are structured in order to facilitate resolution under the Bankruptcy Code, which has been an outgrowth of the resolution planning process under the Dodd-Frank Act. One of these is a concept that is being adopted globally, which is called, ``Total Loss Absorbing Capacity.''    That consists of two things. It consists of the capital of the bank and also a layer of debt that can effectively be bailed in or converted, in effect, to equity so that no capital needs to be infused from sources outside the firm, including no taxpayer funds would have to be infused to create the capital necessary.    The capital levels of financial institutions since 2008, especially the largest ones, have essentially doubled from where they were in 2008, and then if you add a requirement that is in the process of being developed and is likely to be imposed by regulators for total loss absorbing capacity, it will double again in effect and permit the use of bankruptcy and single point of entry resolution to use that loss absorbing capacity in order to resolve firms.    Most of the largest financial institutions actually have that layer of indebtedness already, so we are actually at a point where the resources are available to recapitalize these firms.    Secondly, there has been a massive increase in the amount of liquidity that's being maintained by all the firms. Congressman Conyers made the point about a liquidity source. I know the NBC makes that point in their letter and I make it as well in my testimony, my written testimony, but today, with the levels of liquidity that the banks are maintaining, they can resolve themselves in a severely adverse economic scenario based on the balance sheet liquidity that they are currently maintaining. So that is--and it's a huge increase from the way it was in 2008.    The third area that single point of entry requires is a clean holding company, a holding company that can be left behind in a bankruptcy proceeding when the operating subsidiaries have been recapitalized and then get transferred to a bridge company. And pursuant to regulatory requirements and also pursuant to the resolution planning process, the firms are also putting themselves in a place where they are not having material operations occurring in the holding company where there is little or no short-term debt in the holding company, and subsidiaries are not guaranteeing holding company debts. So that is another aspect of how the companies are putting themselves in a position to actually utilize the single point of entry process.    And finally, because the amendments that are in section 1188 of the proposed bill have not been enacted, there has been a very strong effort by both regulators and by the firms to amend financial contracts to remove cross defaults to a holding company bankruptcy so that the financial contracts cannot be terminated the way they were in Lehman Brothers and can continue in effect, of course with appropriate protections for counterparties, because the guarantees would be moved to the new bridge company and would therefore not be subject to the debt that's been left behind in the old bankrupt company.    So all of those features, and there were some others that I mention in my written testimony, are putting things in a position to actually accomplish single point of entry.    Now, there were two provisions in the bill that I wanted to mention that I think are worth just highlighting. The first one is the ability of the Federal Reserve to commence an involuntary case. One of the difficulties that's been raised with that provision is involuntary cases normally come with the right to oppose them and other parties need to be heard by the court, there might be appeals, and in my view, if the due process issues are so overwhelming with respect to that issue, it's not critically necessary to include that provision.    And I see you raising your gavel, so what I will do is wait for questions if there are questions on that issue or on the other provision that I wanted to address. Thank you.</t>
   </si>
   <si>
@@ -124,9 +103,6 @@
     <t xml:space="preserve">    Mr. Marino. Attorney Hessler, please.</t>
   </si>
   <si>
-    <t>Hessler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hessler. Thank you. Chairman Marino, Chairman Goodlatte, Ranking Member Johnson, Ranking Member Conyers, other Members, thank you for inviting me to testify at today's hearing.    As noted in your very kind introduction, I'm a partner in the restructuring group of Kirkland &amp; Ellis, LLP. Although my practice includes representing creditors, equity holders, and other constituencies in complex distressed matters, I mostly represented major corporations as company counsel in some of the largest and most challenging bankruptcies in history. I am speaking especially from that perspective this morning.    I am distinctly pleased to appear before this Subcommittee again regarding the Financial Institution Bankruptcy Act of 2015, also known as Subchapter V. It was my privilege to testify in July 2014 in support of the prior version. Given the comprehensive record scrutinizing Subchapter V, I will not repeat my prior testimony and will instead this morning focus on two issues.    First, the comparative benefits of a judicial process such as Chapter 11 versus a regulatory process such as Title II of the Dodd-Frank Act for addressing a major bank's failure, and second, how the 48-hour delay of the qualified financial contract safe harbors from the automatic stay is critical to the effectiveness of Subchapter V.    Turning to the first issue. The touchstone analytical framework for evaluating Subchapter V should not be as a stand-alone proposal, but rather, as compared to Chapter 11 in its current form, Chapter 11 as amended by Subchapter V and Title II. Among these alternatives, Subchapter V is the best designed option both structurally and philosophically to advance the private and public policies that animate the reorganization of a financial corporation.    The hallmarks of an optimal resolution regime for failing SIFIs must be clear and established rules administered by an impartial tribunal. Subchapter V is a financial corporation specific supplement to the existing reorganization provisions of Chapter 11 of the Bankruptcy Code. And thus, it builds upon decades of practice and precedent that have refined the code and that otherwise provide a well tested and proven successful reorganization framework for major corporations, including SIFIs and their stakeholders.    Importantly, Subchapter V does not directly preclude or supplant the potential applicability of Title II. Critically, however, by design and operation, the availability of Subchapter V will make it far less likely that Title II will ever be invoked.    Turning to my second point. As a general rule, upon a debtor commencing a Chapter 11 case, contract counterparties are automatically stayed from terminating their agreements and engaging in self-help remedies against estate assets, but the Bankruptcy Code currently provides that counterparties to so-called qualified financial contracts, such as derivatives, repurchase, and swap agreements enjoy a so-called safe harbor from the automatic stay.    Consequently, a Chapter 11 filing by a financial corporation with significant qualified financial contracts could be chaotic at the outset as counterparties that are not subject to the automatic stay proceed to terminate and enforce their rights in the debtor's assets. Subchapter V addresses this potential problem by precluding access to these safe harbors for 48 hours after the commencement of the case, which is consistent with the time period under Section 1185 for effecting the transfer of the subsidiary operating assets which include qualified financial contracts to the bridge company under the single point of entry approach highlighted by Mr. Bernstein.    I have previously criticized Title II for imposing too brief a stay on this front until only 5 p.m. Eastern on the business day following the FDIC's appointment as receiver, and as a general matter, my default position remains that safe harbors should not exist at all. That said, for the following four reasons, I am persuaded that Subchapter V proposes a workable construct in this context.    One, since passage of the Dodd-Frank Act in 2010, financial corporations have had 5 years to draft and refine their living wills. Ideally, the enactment of Subchapter V will reinforce the need to be prepared to make expedited qualified financial contract transfer and assignment decisions.    Two, Subchapter V requires that decisions on whether to transfer and assign all of the debtor financial corporation's assets, expressly including qualified financial contracts, must be made within 48 hours. It logically follows that 48 hours is a sufficient period to stay qualified financial contract counterparties from taking remedial actions that would interfere with these determinations.    Three, the implicit expectation of Subchapter V is that essentially all qualified financial contracts will be transferred to the bridge company. Because Subchapter V precludes cherry-picking only certain qualified financial contracts for assignment, this should reduce the burden of having to make transfer determinations for every individual agreement.    Lastly, the most likely alternative to a Subchapter V case, which is Title II, proposes a shorter stay than 48 hours, and Chapter 11 without Subchapter V provides for no stay at all on qualified financial contract counterparty termination. This means Subchapter V's 48-hour stay is actually the most robust option under the current and potential SIFI insolvency regimes at issue.    I look forward to further careful consideration of the important issues addressed by Subchapter V. I thank the Subcommittee for allowing me to share my views on this legislation, and I welcome the opportunity to answer any questions about my testimony.</t>
   </si>
   <si>
@@ -220,9 +196,6 @@
     <t>412482</t>
   </si>
   <si>
-    <t>Blake Farenthold</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Farenthold. Thank you very much, Mr. Chairman.    And actually Mr. Levin has a great lead in to my question. We are a bunch of lawyers up here that spend a lot of time looking at this and getting into the weeds. I want to take a step back and look at the big picture of this.    We recently enacted Dodd-Frank, which is a very burdensome regulatory scheme, which went--from what I hear from a lot of banks and from a lot of people, seeking to borrow from banks. We got a situation where just recently we had the increased liquidity rules that we've been talking about. We really are looking at a very worse case scenario, something that none of us can imagine at this point.    Can--maybe Mr. Bernstein, can you give me an idea? What kind of bankruptcy events are we talking about here?</t>
   </si>
   <si>
@@ -391,9 +364,6 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you Mr. Chairman. Thanks to all of you for being here with us today. Some of my questions were asked already, but I just had a quick question for you Mr. Hessler on living will requirements and I just wondered what your thoughts were on this legislation in terms of whether or not it would help facilitate the Dodd-Frank living will requirements?</t>
   </si>
   <si>
@@ -413,9 +383,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, the Chair recognizes the gentleman from Texas, Congressman Radcliffe.</t>
-  </si>
-  <si>
-    <t>Radcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Radcliffe. Thank you, Chairman. I would also like to thank my friend and colleague, the gentleman from Michigan, Congressman Trott for his work on this issue.    The 2008 financial crisis hurt a lot of folks in Northeast Texas. And some of the families in my district are frankly still working to get back on solid financial footing. And I'll be the first to admit that I'm not an expert on bankruptcy issues. But following that crisis I think it became obvious to all of us that these technical, complicated bankruptcy issues are having a huge impact on everyday Americans. And issues that impact everyday Americans are the ones that we as policymakers certainly want to make sure that we're addressing.    There were a lot of questions and frustrations that have come out of the financial crisis. For example, why did distressed financial firms receive government bailouts, instead of being forced to seek resolution through the bankruptcy process? Now I know in the years since this crisis this Committee has worked very hard to improve the Bankruptcy Code and make sure that it is equipped to handle all failing companies. I appreciate all of you witnesses being here today to provide your expertise on the proposed legislation. I want to find out whether it is in fact going to achieve its intended goal.    So I want to kick things off by asking about a provision in the bill that would allow the Federal Reserve to initiate a bankruptcy case over the objection of a financial institution.    Now, a lot of folks in my district have a real distrust of the Federal Reserve. They see it as a dangerously powerful body, one with little oversights and little transparency. So if you gentleman were chatting with my constituents about possibly giving the Federal Reserve this new authority, how would you allay their concerns? And what would you tell them about how this new authority would help them?</t>
@@ -850,11 +817,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -874,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -902,11 +865,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -926,13 +887,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -952,13 +911,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -978,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1006,11 +961,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1030,13 +983,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1058,11 +1009,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1082,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1110,11 +1057,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1134,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1162,11 +1105,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1188,11 +1129,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1212,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1240,11 +1177,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1266,11 +1201,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1290,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1318,11 +1249,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1342,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1370,11 +1297,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1394,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1422,11 +1345,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1448,11 +1369,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1472,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1500,11 +1417,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1524,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1552,11 +1465,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1576,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1604,11 +1513,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1628,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1656,11 +1561,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1680,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1708,11 +1609,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1732,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1758,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1784,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1810,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1836,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1862,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1888,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1914,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1940,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1968,11 +1849,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1992,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2018,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2044,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2070,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2096,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2122,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2148,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2174,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2200,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>68</v>
-      </c>
-      <c r="H54" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2226,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2252,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2278,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2304,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2330,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2356,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2382,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2408,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2434,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2460,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
-      </c>
-      <c r="G64" t="s">
-        <v>68</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2488,11 +2329,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2512,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2538,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2564,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2590,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2616,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2642,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2668,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2694,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2720,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2746,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2772,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2798,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2824,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2850,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2876,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2902,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2928,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2954,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2982,11 +2785,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3006,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3032,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3058,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3084,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3110,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3136,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3162,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3188,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3214,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3240,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3266,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3292,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3318,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3344,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3370,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3396,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3424,11 +3193,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3448,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>124</v>
-      </c>
-      <c r="G102" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3474,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3500,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3526,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>124</v>
-      </c>
-      <c r="G105" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3552,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3578,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G107" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3606,11 +3361,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3630,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>133</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3656,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3682,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>133</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3708,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3734,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>133</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3760,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3786,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>133</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3812,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>36</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3838,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>133</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3864,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3890,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
         <v>133</v>
-      </c>
-      <c r="H119" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3918,11 +3649,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95425.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95425.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order.    Good morning everyone. I apologize for the delay. We all have three or four things going on at once, starting at 7 in the morning. So without objection, the Chair is authorized to declare recesses of the Committee at any time. We welcome everyone to today's hearing on H.R. 2947, the ``Financial Institution Bankruptcy Act of 2015.'' I will now recognize myself for an opening statement.    Last Congress, the Financial Institution Bankruptcy Act was reported favorably by this Committee and passed the House under suspension of the rules. This week, the legislation was reintroduced, and today, we build on last year's record by further examining the bill. In the wake of the financial crisis of 2008, Congress enacted the Dodd-Frank Wall Street Reform and Consumer Protection Act. That legislation was intended to address, among other things, the potential failure of large financial institutions.    While the Dodd-Frank Act created a regulatory process for such an event, the Act states that the preferred method of resolution for a financial institution is through the bankruptcy process. However, the Dodd-Frank Act did not make any amendments to the bankruptcy code to account for the unique characteristics of a financial institution. The legislation before us today fills that void.    The Financial Institution Bankruptcy Act is the product of years of study by industry, legal, and financial regulatory experts, as well as bipartisan review over the course of three separate Subcommittee hearings last Congress. The legislation includes several provisions that improve the ability of a financial institution to be resolved through the bankruptcy process. It allows for a speedy transfer of a financial firm's assets to a newly formed company. That company would continue the firm's operations for the benefit of its customers, employees, and creditors, and ensure the financial stability of the marketplace.    This quick transfer is overseen by, and subject to the approval of an experienced bankruptcy judge, and includes due process protections for parties-in-interest. The bill also creates an explicit rule in the bankruptcy process for the key financial regulators. In addition, there are provisions that facilitate the transfer of derivative and similarly structured contracts to the newly formed company. This will improve the ability of the company to continue the financial institution's operations.    Finally, the legislation recognizes the factually and legally complicated questions presented by the resolution of financial institutions. To that end, the bill provides that specialized bankruptcy and appellate judges will be designated in advance to preside over these cases.    The bankruptcy process has long been favored as the primary mechanism for dealing with distressed and failing companies. This is due to its impartial nature, adherence to established precedent, judiciary oversight, and grounding in the principles of due process and the rule of law. We are here today as part of an effort to structure a bankruptcy process that is better equipped to deal with the specific issues raised by failing financial firms.    As an original cosponsor of the bill, I look forward to hearing from today's expert panel of witnesses on the merits of the Financial Institution Bankruptcy Act and whether any further refinements to the bill are necessary. I now recognize the Ranking Member of the Subcommittee on Regulatory Reform, Commercial, and Antitrust Law, Mr. Hank Johnson, for his opening statement. Mr. Johnson.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman. H.R. 2947, the ``Financial Institution Bankruptcy Act of 2015,'' amends the bankruptcy code to establish a process for the expedited judicial resolution of large financial institutions to soften the disruptive effects of their collapse.    I trust the courts and am sympathetic to the notion that a judicial process may be preferable to an administrative process for resolving systemically important financial institutions that present a risk to the economic stability of our Nation, but I'm concerned that the lack of a funding mechanism for H.R. 2947 may make the bill unworkable.    A key difference between an orderly resolution under Dodd-Frank and the resolution contemplated by this bill concerns the proper mechanism for funding the reorganization of the debtor. In a typical bankruptcy case, the debtor's reorganization may be funded by private parties or by the Federal Government as illustrated by the General Motors bankruptcy.    In many instances, liquidity provided by the U.S. Government to prevent the collapse of financial institutions has either returned a profit to the government or is likely to be repaid. The National Bankruptcy Conference (NBC), which includes the Nation's leading bankruptcy scholars and practitioners, explained in a letter to the Committee in June that, ``meeting the liquidity needs of a distressed financial institution is essential to successfully resolving the firm without creating undue systemic risk.''    This critical mechanism has prevented the collapse of several major financial institutions without cost to the taxpayer. It is my understanding that this element does not currently exist in the bill for jurisdictional reasons. Nevertheless, I remain optimistic that the Chair will continue to work across party lines to accommodate these concerns prior to the bill's consideration on the floor.    In addition to these concerns, I would caution the Chair against efforts to combine this bill with legislation that would strike Title II of the Dodd-Frank Act. Such efforts would be unacceptable and would meet strong opposition. As the National Bankruptcy Conference further noted, laws currently in place such as Title II of the Dodd-Frank Act should ``continue to be available even if the bankruptcy code is amended to better address the resolution of systemically important financial institutions'' because ``the ability of U.S. regulators to assume full control of the resolution process to elicit the cooperation from non-U.S. regulators is an essential insurance policy against systemic risk and potential conflict and dysfunction among the multinational components of these institutions.''    Title II of the Dodd-Frank Act also serves as a valuable backstop to the bankruptcy process should this bill become law. Additionally, as the conference has also noted, it is important that financial regulators have a very significant role in the timely resolution of a financial institution regardless of whether by bankruptcy or orderly liquidation.    As the Conference noted, the ``heavy involvement of U.S. regulators would be critical if adverse systemic effects from the failure of the systemically important financial institution are to be prevented or minimized.''    It would be unwise to overlook the expertise of financial regulators who are charged with considering the impact of a resolution on the economy and financial markets in favor of a process that is intended to produce maximum returns to creditors while facilitating the debtor's reorganization.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -67,12 +82,21 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman. I appreciate your holding this hearing.    Our Nation's financial system provides the life blood for industry, small businesses, and our communities to develop, grow, and prosper. Ensuring that this system functions efficiently in both good times and bad is critical to the ongoing vitality of our economy. The recent financial crisis illustrated that the financial system and existing laws were not adequately prepared for the insolvency of certain institutions, which threatened the very stability of the global economy and our financial industry.    There has been considerable debate over whether Congress' main response to the financial crisis--the Dodd-Frank Wall Street Reform and Consumer Protection Act--is adequate to respond to a future crisis. Today's hearing, however, is not focused on that debate. Instead, we turn our attention to the private and public efforts to strengthen the Bankruptcy Code so that it may better facilitate the resolution of an insolvent financial firm while preserving the stability of the financial markets.    The subject of today's hearing, the ``Financial Institution Bankruptcy Act of 2015,'' is a reflection of these efforts. The bill is calibrated carefully to provide transparency, predictability, and judicial oversight to a process that must be executed quickly and in a manner that is responsive to potential systemic risk.    Additionally, it incorporates the ``single point of entry'' approach, which a growing consensus of experts in public and private industry believes is the most effective and feasible method to resolve a financial institution that has a bank holding company. The Judiciary Committee has a long history of improving the Bankruptcy Code to ensure that it is equipped properly to administer all failing companies.    The Financial Institution Bankruptcy Act adds to this history by enhancing the ability of financial firms to be resolved through the bankruptcy process. The development of the legislation before us today has been a collaborative effort that included the financial and legal community, Members of Congress on both sides of the aisle, the Federal Reserve, the FDIC, the courts, and Treasury.    I applaud Congressman Trott for continuing the efforts of last Congress to strengthen the bankruptcy code and Chairman Marino for holding today's hearing on this important reform. I look forward to hearing from today's witnesses on the Financial Institution Bankruptcy Act and whether the passage of time has resulted in the need for any further revisions to the bill.    And at this time it is my pleasure to yield the balance of my time to the gentleman from Michigan, Mr. Trott, the chief sponsor of the legislation for any opening remarks that he might have.</t>
   </si>
   <si>
     <t>412636</t>
   </si>
   <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Chairman. I also want to thank Chairman Marino and Ranking Member Johnson for holding this hearing, and also thank our witnesses for again providing their insight on this bill.    The health of our financial institutions, particularly large multinational players, is critical to not only our economy but also our citizens. Consequently, how we react when a systemically important financial institution fails is of particular concern.    The Financial Institution Bankruptcy Act of 2015 seeks to address those concerns and put in place a better process. The bill amends the bankruptcy code so as to allow the insolvency of a financial institution to be resolved through the Chapter 11 process. The Chapter 11 process provides rules that are designed to accomplish an equitable and predictable resolution of competing claims.    Chapter 11 is a relatively efficient process, and the integrity and transparency ensured by due process protections will reduce the risk to our overall economy and reduce the potential of a taxpayer funded bailout.    As an aside, my hometown is Detroit, Michigan, and I am here to tell you that the bankruptcy process can add great value to difficult financial situations that undermine our economy and our communities.    Thank you again, Chairman. I yield back my time.</t>
   </si>
   <si>
@@ -82,18 +106,27 @@
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    The Chair recognizes the full Judiciary Committee Ranking Member, Congressman Conyers from the State of Michigan for his opening statement.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman and Members of the Committee. I join in congratulating my colleague from Michigan, Mr. Trott, for his authorship of the measure that is before us. I support it, and I am a cosponsor of it. As a matter of fact, there are a number of reasons for my support.    Number one, the bill addresses a real need, recognized by regulatory agencies, bankruptcy experts, and the private sector that the bankruptcy law must be amended so that it can expeditiously restore trust in the financial marketplace as soon as possible after the collapse of a major financial institution.    Many of us recall the failure of Lehman Brothers in 2008 which caused a worldwide freeze on the availability of credit, which not only affected Wall Street but Main Street as well.    The near collapse of our Nation's economy because of Lehman's failure revealed that current bankruptcy law is ill equipped to deal with complex financial institutions in economic distress. H.R. 2947 would establish a specialized form of bankruptcy relief under Chapter 11 of the Bankruptcy Code by which the holding company of a large financial institution could voluntarily use or be forced to use by the Federal Reserve Board, under certain conditions.    The debtor's operating subsidiaries would continue to operate outside of bankruptcy while the debtor's principal assets--such as secured property, financial contracts, and the stock of its subsidiaries--would be transferred to a temporary bridge company. The bridge company, under the guidance of a trustee, in turn, would liquidate these assets to pay the claims of the debtor's creditors.    The legislation would also impose a temporary stay to prevent parties from exercising their rights in certain qualified financial contracts. Each critical step of this process would be under the supervision of a bankruptcy judge and subject to the right of appeal.    Another reason for my support is that it appropriately recognizes the important role of the Dodd-Frank Act in the regulation of large financial institutions. Without doubt, the Great Recession was a direct result of the regulatory equivalent of the Wild West. In the absence of any meaningful regulation of the mortgage industry, lenders developed high risk subprime mortgages and used predatory marketing tactics targeting the most vulnerable.    These doomed-to-fail mortgages were then securitized and sold to unsuspecting investors, including pension funds and school districts. The ensuing 2008 crash froze credit and trapped millions of Americans in mortgages they could no longer afford, causing waves of foreclosures, massive unemployment, and international economic upheaval.    The Dodd-Frank Act goes a long way toward reinvigorating a regulatory system that makes the financial marketplace more accountable and hopefully more resilient. In particular, Title II of Dodd-Frank establishes a mandatory resolution process to wind down large financial institutions, which is a critical enforcement tool for bank regulators to ensure compliance with the Act's heightened regulatory requirements.    Nevertheless, Dodd-Frank clearly recognizes that bankruptcy should be a first resort and that Title II's orderly resolution process should be a last resort. In fact, Title I of the Act explicitly requires these companies to write so-called living wills that must explain how they will resolve their financial difficulties in a hypothetical bankruptcy scenario. This is because bankruptcy law has, for more than 100 years, enabled some of the Nation's largest companies to regain their financial footing, including General Motors and Chrysler Corporations.    But to be a truly viable alternative to Dodd-Frank's resolution process, the bankruptcy law must be amended to facilitate the rapid administration of a debtor's assets in an orderly fashion that maximizes value and minimizes disruption to the financial marketplace.    And finally, I am pleased to note that this bill is the product of a very collaborative, inclusive, and deliberative process, which I hope would be more regularly employed in this Congress and not the exception when it comes to drafting legislation.    While an excellent measure, H.R. 2947 unfortunately does not include any provision allowing the Federal Government to be a lender of last resort, which nearly every expert recognizes is a necessary element to ensure financial stability. I recognize, however, that this is an issue not within the Committee's jurisdiction but more within the area of the jurisdiction of the Financial Services Committee.    I welcome the witnesses, particularly Mr. Levin, and I thank the witnesses for their participation here today, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Congressman Conyers.    Without objection, other Members' opening statements will be made part of the record. The Chair will begin by swearing in our witnesses before introducing them. Would you please rise and raise your right hand.    Do you swear that the testimony you're about to give before this Committee is the truth, the whole truth, and nothing but the truth, so help you God?    Let the record reflect that the witnesses have answered in the affirmative. Thank you. Please be seated.    I will now introduce each of the witnesses before anyone gives their opening statement. Mr. Don Bernstein is a partner at Davis Polk, where he heads the firm's insolvency and restructuring practice. During his distinguished 35-year career, he has represented nearly every major financial institution in numerous restructurings, as well as leading a number of operating firms through bankruptcy, including Ford, LTV Steel, and Johns Manville. Mr. Bernstein has earned multiple honors for his practice, including being elected by his peers as the chair of the National Bankruptcy Conference, the most prestigious professional organization in the field. Mr. Bernstein received his A.B. (Cum laude) from Princeton University and his JD from the University of Chicago Law School. Thank you, Mr. Bernstein, for being here    Mr. Stephen Hessler is a partner in the restructuring group of Kirkland &amp; Ellis. His practice involves representing debtors, creditors, and investors in complex corporate Chapter 11 cases, out-of-court restructurings, acquisitions, and related trial and appellate litigation. In addition to practicing law, Mr. Hessler is an author and frequent lecturer on a variety of restructuring related topics, including, as a professor at the University of Pennsylvania, where he teaches a restructuring class to both law school and Wharton students. Mr. Hessler has been recognized by both Chambers and Turnarounds &amp; Workouts as an outstanding restructuring lawyer. Mr. Hessler received his BA and JD from the University of Michigan, where he served as the managing editor of Michigan's Law Review. Welcome.    Mr. Richard Levin is a partner in the Bankruptcy, Workout and Corporate Reorganization Practice of Jenner &amp; Block. Mr. Levin is the current chair of the National Bankruptcy Conference, a fellow of the American College of Bankruptcy, and a lecturer of bankruptcy law at the Harvard Law School. In almost 40 years of practice, Mr. Levin has gained a reputation as one of the foremost restructuring, bankruptcy and creditor/debtor rights lawyers. Notably, Mr. Levin served as a bankruptcy counsel to the House Judiciary Committee and was one of the principal authors of the 1978 U.S. Bankruptcy Code. Mr. Levin received his undergraduate degree from MIT and his JD from Yale Law School where he served as editor of Yale Law Review. Welcome, Mr. Levin.</t>
   </si>
   <si>
+    <t>Levin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Levin. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Each of the witnesses' written statements will be entered into the record in its entirety, and I ask each of the witnesses to summarize their statements, you've been through this before, in 5 minutes or less. To help you stay within your time, you see the lights in front of you, but as I do, when I'm sitting at that table making a statement, I'm concentrating on making my statement and not watching the lights.    So what I will politely and diplomatically do if it gets too far over the 5 minutes, is I will reach for the gavel and just sort of raise it to get your attention, and ask you to succinctly come to a close in your statement.    I'm going to recognize our witnesses for their opening statement. Mr. Bernstein.</t>
   </si>
   <si>
+    <t>Bernstein</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bernstein. Thank you, Chairman Marino, and thank you, Chairman Goodlatte, and also Congressman Trott for introducing and being a sponsor of the bill, as well as Congressman Conyers. I want to say that you have made my job easy in terms of meeting the 5-minute requirement because the statements were so good in terms of summarizing the bill. I'm just going to skip to my major points    So, just as a little bit of background, this idea of single point of entry resolution of a financial firm is a result of a lot of work that's been done at the FDIC and in other contexts, including under Title II of Dodd-Frank, with the idea that if you set up financial institutions correctly in the United States with bank holding companies, you should be able to recapitalize their operations if the operations have losses because there is loss absorbency at the holding company level.    And in fact, there are a number of features that are being added to the way bank holding companies are structured in order to facilitate resolution under the Bankruptcy Code, which has been an outgrowth of the resolution planning process under the Dodd-Frank Act. One of these is a concept that is being adopted globally, which is called, ``Total Loss Absorbing Capacity.''    That consists of two things. It consists of the capital of the bank and also a layer of debt that can effectively be bailed in or converted, in effect, to equity so that no capital needs to be infused from sources outside the firm, including no taxpayer funds would have to be infused to create the capital necessary.    The capital levels of financial institutions since 2008, especially the largest ones, have essentially doubled from where they were in 2008, and then if you add a requirement that is in the process of being developed and is likely to be imposed by regulators for total loss absorbing capacity, it will double again in effect and permit the use of bankruptcy and single point of entry resolution to use that loss absorbing capacity in order to resolve firms.    Most of the largest financial institutions actually have that layer of indebtedness already, so we are actually at a point where the resources are available to recapitalize these firms.    Secondly, there has been a massive increase in the amount of liquidity that's being maintained by all the firms. Congressman Conyers made the point about a liquidity source. I know the NBC makes that point in their letter and I make it as well in my testimony, my written testimony, but today, with the levels of liquidity that the banks are maintaining, they can resolve themselves in a severely adverse economic scenario based on the balance sheet liquidity that they are currently maintaining. So that is--and it's a huge increase from the way it was in 2008.    The third area that single point of entry requires is a clean holding company, a holding company that can be left behind in a bankruptcy proceeding when the operating subsidiaries have been recapitalized and then get transferred to a bridge company. And pursuant to regulatory requirements and also pursuant to the resolution planning process, the firms are also putting themselves in a place where they are not having material operations occurring in the holding company where there is little or no short-term debt in the holding company, and subsidiaries are not guaranteeing holding company debts. So that is another aspect of how the companies are putting themselves in a position to actually utilize the single point of entry process.    And finally, because the amendments that are in section 1188 of the proposed bill have not been enacted, there has been a very strong effort by both regulators and by the firms to amend financial contracts to remove cross defaults to a holding company bankruptcy so that the financial contracts cannot be terminated the way they were in Lehman Brothers and can continue in effect, of course with appropriate protections for counterparties, because the guarantees would be moved to the new bridge company and would therefore not be subject to the debt that's been left behind in the old bankrupt company.    So all of those features, and there were some others that I mention in my written testimony, are putting things in a position to actually accomplish single point of entry.    Now, there were two provisions in the bill that I wanted to mention that I think are worth just highlighting. The first one is the ability of the Federal Reserve to commence an involuntary case. One of the difficulties that's been raised with that provision is involuntary cases normally come with the right to oppose them and other parties need to be heard by the court, there might be appeals, and in my view, if the due process issues are so overwhelming with respect to that issue, it's not critically necessary to include that provision.    And I see you raising your gavel, so what I will do is wait for questions if there are questions on that issue or on the other provision that I wanted to address. Thank you.</t>
   </si>
   <si>
@@ -103,6 +136,9 @@
     <t xml:space="preserve">    Mr. Marino. Attorney Hessler, please.</t>
   </si>
   <si>
+    <t>Hessler</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hessler. Thank you. Chairman Marino, Chairman Goodlatte, Ranking Member Johnson, Ranking Member Conyers, other Members, thank you for inviting me to testify at today's hearing.    As noted in your very kind introduction, I'm a partner in the restructuring group of Kirkland &amp; Ellis, LLP. Although my practice includes representing creditors, equity holders, and other constituencies in complex distressed matters, I mostly represented major corporations as company counsel in some of the largest and most challenging bankruptcies in history. I am speaking especially from that perspective this morning.    I am distinctly pleased to appear before this Subcommittee again regarding the Financial Institution Bankruptcy Act of 2015, also known as Subchapter V. It was my privilege to testify in July 2014 in support of the prior version. Given the comprehensive record scrutinizing Subchapter V, I will not repeat my prior testimony and will instead this morning focus on two issues.    First, the comparative benefits of a judicial process such as Chapter 11 versus a regulatory process such as Title II of the Dodd-Frank Act for addressing a major bank's failure, and second, how the 48-hour delay of the qualified financial contract safe harbors from the automatic stay is critical to the effectiveness of Subchapter V.    Turning to the first issue. The touchstone analytical framework for evaluating Subchapter V should not be as a stand-alone proposal, but rather, as compared to Chapter 11 in its current form, Chapter 11 as amended by Subchapter V and Title II. Among these alternatives, Subchapter V is the best designed option both structurally and philosophically to advance the private and public policies that animate the reorganization of a financial corporation.    The hallmarks of an optimal resolution regime for failing SIFIs must be clear and established rules administered by an impartial tribunal. Subchapter V is a financial corporation specific supplement to the existing reorganization provisions of Chapter 11 of the Bankruptcy Code. And thus, it builds upon decades of practice and precedent that have refined the code and that otherwise provide a well tested and proven successful reorganization framework for major corporations, including SIFIs and their stakeholders.    Importantly, Subchapter V does not directly preclude or supplant the potential applicability of Title II. Critically, however, by design and operation, the availability of Subchapter V will make it far less likely that Title II will ever be invoked.    Turning to my second point. As a general rule, upon a debtor commencing a Chapter 11 case, contract counterparties are automatically stayed from terminating their agreements and engaging in self-help remedies against estate assets, but the Bankruptcy Code currently provides that counterparties to so-called qualified financial contracts, such as derivatives, repurchase, and swap agreements enjoy a so-called safe harbor from the automatic stay.    Consequently, a Chapter 11 filing by a financial corporation with significant qualified financial contracts could be chaotic at the outset as counterparties that are not subject to the automatic stay proceed to terminate and enforce their rights in the debtor's assets. Subchapter V addresses this potential problem by precluding access to these safe harbors for 48 hours after the commencement of the case, which is consistent with the time period under Section 1185 for effecting the transfer of the subsidiary operating assets which include qualified financial contracts to the bridge company under the single point of entry approach highlighted by Mr. Bernstein.    I have previously criticized Title II for imposing too brief a stay on this front until only 5 p.m. Eastern on the business day following the FDIC's appointment as receiver, and as a general matter, my default position remains that safe harbors should not exist at all. That said, for the following four reasons, I am persuaded that Subchapter V proposes a workable construct in this context.    One, since passage of the Dodd-Frank Act in 2010, financial corporations have had 5 years to draft and refine their living wills. Ideally, the enactment of Subchapter V will reinforce the need to be prepared to make expedited qualified financial contract transfer and assignment decisions.    Two, Subchapter V requires that decisions on whether to transfer and assign all of the debtor financial corporation's assets, expressly including qualified financial contracts, must be made within 48 hours. It logically follows that 48 hours is a sufficient period to stay qualified financial contract counterparties from taking remedial actions that would interfere with these determinations.    Three, the implicit expectation of Subchapter V is that essentially all qualified financial contracts will be transferred to the bridge company. Because Subchapter V precludes cherry-picking only certain qualified financial contracts for assignment, this should reduce the burden of having to make transfer determinations for every individual agreement.    Lastly, the most likely alternative to a Subchapter V case, which is Title II, proposes a shorter stay than 48 hours, and Chapter 11 without Subchapter V provides for no stay at all on qualified financial contract counterparty termination. This means Subchapter V's 48-hour stay is actually the most robust option under the current and potential SIFI insolvency regimes at issue.    I look forward to further careful consideration of the important issues addressed by Subchapter V. I thank the Subcommittee for allowing me to share my views on this legislation, and I welcome the opportunity to answer any questions about my testimony.</t>
   </si>
   <si>
@@ -196,6 +232,12 @@
     <t>412482</t>
   </si>
   <si>
+    <t>Farenthold</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Farenthold. Thank you very much, Mr. Chairman.    And actually Mr. Levin has a great lead in to my question. We are a bunch of lawyers up here that spend a lot of time looking at this and getting into the weeds. I want to take a step back and look at the big picture of this.    We recently enacted Dodd-Frank, which is a very burdensome regulatory scheme, which went--from what I hear from a lot of banks and from a lot of people, seeking to borrow from banks. We got a situation where just recently we had the increased liquidity rules that we've been talking about. We really are looking at a very worse case scenario, something that none of us can imagine at this point.    Can--maybe Mr. Bernstein, can you give me an idea? What kind of bankruptcy events are we talking about here?</t>
   </si>
   <si>
@@ -364,6 +406,12 @@
     <t>412505</t>
   </si>
   <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you Mr. Chairman. Thanks to all of you for being here with us today. Some of my questions were asked already, but I just had a quick question for you Mr. Hessler on living will requirements and I just wondered what your thoughts were on this legislation in terms of whether or not it would help facilitate the Dodd-Frank living will requirements?</t>
   </si>
   <si>
@@ -383,6 +431,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, the Chair recognizes the gentleman from Texas, Congressman Radcliffe.</t>
+  </si>
+  <si>
+    <t>Radcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Radcliffe. Thank you, Chairman. I would also like to thank my friend and colleague, the gentleman from Michigan, Congressman Trott for his work on this issue.    The 2008 financial crisis hurt a lot of folks in Northeast Texas. And some of the families in my district are frankly still working to get back on solid financial footing. And I'll be the first to admit that I'm not an expert on bankruptcy issues. But following that crisis I think it became obvious to all of us that these technical, complicated bankruptcy issues are having a huge impact on everyday Americans. And issues that impact everyday Americans are the ones that we as policymakers certainly want to make sure that we're addressing.    There were a lot of questions and frustrations that have come out of the financial crisis. For example, why did distressed financial firms receive government bailouts, instead of being forced to seek resolution through the bankruptcy process? Now I know in the years since this crisis this Committee has worked very hard to improve the Bankruptcy Code and make sure that it is equipped to handle all failing companies. I appreciate all of you witnesses being here today to provide your expertise on the proposed legislation. I want to find out whether it is in fact going to achieve its intended goal.    So I want to kick things off by asking about a provision in the bill that would allow the Federal Reserve to initiate a bankruptcy case over the objection of a financial institution.    Now, a lot of folks in my district have a real distrust of the Federal Reserve. They see it as a dangerously powerful body, one with little oversights and little transparency. So if you gentleman were chatting with my constituents about possibly giving the Federal Reserve this new authority, how would you allay their concerns? And what would you tell them about how this new authority would help them?</t>
@@ -767,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,7 +826,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,2861 +848,3325 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
       <c r="H56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
       <c r="H60" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>36</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>25</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G87" t="s">
+        <v>25</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G89" t="s">
+        <v>25</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
       <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G95" t="s">
+        <v>25</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>40</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="G99" t="s">
+        <v>25</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>40</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G102" t="s">
+        <v>130</v>
+      </c>
       <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>115</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G105" t="s">
+        <v>130</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>115</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G107" t="s">
+        <v>130</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>139</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>139</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>40</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>139</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>139</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>40</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>139</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>139</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>134</v>
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95425.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95425.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Marino</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>412636</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Trott</t>
   </si>
   <si>
@@ -230,6 +242,9 @@
   </si>
   <si>
     <t>412482</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Farenthold</t>
@@ -818,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,7 +841,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,3322 +866,3548 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>40</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>40</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H64" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>36</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H85" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G87" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H87" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G89" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H89" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G91" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H91" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>36</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G93" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H93" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>40</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G95" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H95" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>40</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>44</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>40</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>44</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G99" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>40</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>44</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G102" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>40</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>44</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G105" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>36</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>40</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G107" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>139</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>144</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>36</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>40</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>139</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>144</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>40</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>139</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>33</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>139</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>144</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>40</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>139</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>144</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>36</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>139</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>144</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>151</v>
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
